--- a/database.xlsx
+++ b/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vonGross\ownCloud\Workstation_OptimLanduse\Git_applicationOfThePackage\optimlanduse_wip\2 applyOptimizations\realData\indonesienOptimierung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vonGross\Desktop\Git\optimlanduse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE7842-6824-40FF-B14F-00FB4B58B35E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF2C0C-9B40-4E53-A9FC-B447B6799C1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="24225" xr2:uid="{527B3AD8-BB9E-4AF3-B016-485C64571860}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Oil palm plantation</t>
   </si>
   <si>
-    <t>Indicator names</t>
-  </si>
-  <si>
     <t>direction</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>NPP</t>
   </si>
   <si>
-    <t>Branch</t>
-  </si>
-  <si>
     <t>Ecology</t>
   </si>
   <si>
@@ -261,13 +255,19 @@
     <t>Gross margin per labour</t>
   </si>
   <si>
-    <t>Indicator groups</t>
-  </si>
-  <si>
     <t>Economics_TM</t>
   </si>
   <si>
     <t>Economics_NTM</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>indicatorGroup</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90051E3B-1C44-46E3-A451-D4431D095569}">
   <dimension ref="A2:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A62" sqref="A61:T66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,64 +780,64 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -864,16 +864,16 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="6">
         <v>11.4</v>
@@ -926,16 +926,16 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6">
         <v>75.3</v>
@@ -988,16 +988,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6">
         <v>9</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6">
         <v>75.2</v>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6">
         <v>209.4</v>
@@ -1218,16 +1218,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6">
         <v>14</v>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="6">
         <v>97</v>
@@ -1342,16 +1342,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="6">
         <v>11</v>
@@ -1404,16 +1404,16 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="6">
         <v>25.1</v>
@@ -1488,16 +1488,16 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="6">
         <v>32.1</v>
@@ -1550,16 +1550,16 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="6">
         <v>123.9</v>
@@ -1612,16 +1612,16 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="6">
         <v>957.1</v>
@@ -1718,16 +1718,16 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="6">
         <v>0.28499999999999998</v>
@@ -1847,16 +1847,16 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="6">
         <v>28.3</v>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="6">
         <v>82.7</v>
@@ -1971,16 +1971,16 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="6">
         <v>6.3</v>
@@ -2033,16 +2033,16 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="6">
         <v>1.3</v>
@@ -2095,16 +2095,16 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="6">
         <v>7.7</v>
@@ -2201,16 +2201,16 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="6">
         <v>6.3</v>
@@ -2263,16 +2263,16 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="6">
         <v>456.4</v>
@@ -2325,16 +2325,16 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="6">
         <v>14</v>
@@ -2387,16 +2387,16 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="6">
         <v>35.6</v>
@@ -2493,16 +2493,16 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="6">
         <v>2.2000000000000002</v>
@@ -2555,16 +2555,16 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="6">
         <v>1.2</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="6">
         <v>4.7</v>
@@ -2679,16 +2679,16 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="6">
         <v>37.700000000000003</v>
@@ -2741,16 +2741,16 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="6">
         <v>31.3</v>
@@ -2803,16 +2803,16 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="6">
         <v>8.4</v>
@@ -2865,16 +2865,16 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="6">
         <v>3.3</v>
@@ -2927,16 +2927,16 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="6">
         <v>3.1</v>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="6">
         <v>0.1</v>
@@ -3051,16 +3051,16 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="6">
         <v>1.9</v>
@@ -3135,16 +3135,16 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="5"/>
@@ -3211,16 +3211,16 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="6">
         <v>11.6</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" s="6">
         <v>195.2</v>
@@ -3379,16 +3379,16 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" s="6">
         <v>208.3</v>
@@ -3507,13 +3507,13 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="6">
@@ -3567,13 +3567,13 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="6">
@@ -3627,13 +3627,13 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="6">
@@ -3687,13 +3687,13 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="6">
@@ -3747,13 +3747,13 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="6">
@@ -3807,13 +3807,13 @@
     </row>
     <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="3">
@@ -3889,16 +3889,16 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="5"/>
@@ -3943,16 +3943,16 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D69" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="5"/>
@@ -3997,16 +3997,16 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="5"/>
@@ -4051,16 +4051,16 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="5"/>
@@ -4105,16 +4105,16 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="5"/>
@@ -4159,16 +4159,16 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="5"/>
@@ -4213,16 +4213,16 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="5"/>
@@ -4289,16 +4289,16 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="5"/>
@@ -4343,16 +4343,16 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="5"/>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="5"/>
@@ -4451,16 +4451,16 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="5"/>
@@ -4505,16 +4505,16 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="5"/>
@@ -4559,16 +4559,16 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="5"/>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="5"/>
@@ -4689,16 +4689,16 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="5"/>
@@ -4743,16 +4743,16 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="5"/>
@@ -4797,16 +4797,16 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="5"/>
@@ -4851,16 +4851,16 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="5"/>
@@ -4905,16 +4905,16 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="5"/>
@@ -4959,16 +4959,16 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="5"/>
@@ -5013,16 +5013,16 @@
     </row>
     <row r="90" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="2"/>
